--- a/data/trans_camb/P44D-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P44D-Provincia-trans_camb.xlsx
@@ -612,7 +612,7 @@
         <v>-6.959631051230056</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-21.98186350001781</v>
+        <v>-21.98186350001782</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>-36.32614115523042</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-48.87254342678367</v>
+        <v>-49.85170924879135</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-64.30639936839384</v>
+        <v>-64.28036937257826</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-69.15265293986469</v>
+        <v>-69.59057447131175</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-69.66473948592197</v>
+        <v>-67.00512322824795</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-46.18620847798547</v>
+        <v>-50.7784443664713</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-54.37967641716915</v>
+        <v>-51.95493966059031</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>26.24281685000302</v>
+        <v>27.75333795898688</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.375254709923192</v>
+        <v>6.108147339945032</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-9.740687622657589</v>
+        <v>-10.80209179129519</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-2.64469663167509</v>
+        <v>-3.328943434023389</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.690878000689545</v>
+        <v>4.837565800272738</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-6.830457720789346</v>
+        <v>-5.336067148580632</v>
       </c>
     </row>
     <row r="7">
@@ -690,7 +690,7 @@
         <v>-0.2497429955446865</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.7888085442659458</v>
+        <v>-0.7888085442659459</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-1</v>
@@ -713,18 +713,16 @@
         </is>
       </c>
       <c r="C8" s="6" t="inlineStr"/>
-      <c r="D8" s="6" t="n">
-        <v>-0.9580067748232748</v>
-      </c>
+      <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="n">
-        <v>-0.9726303991173918</v>
+        <v>-0.9757626034412018</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.9243402157625656</v>
+        <v>-0.9324278780110027</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.9319176233276107</v>
+        <v>-0.9321409327476358</v>
       </c>
     </row>
     <row r="9">
@@ -738,13 +736,13 @@
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="n">
-        <v>-0.02903112612058922</v>
+        <v>-0.2602738943009666</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8868699337110372</v>
+        <v>0.5832392983390118</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.4325594733619843</v>
+        <v>-0.4219993943750214</v>
       </c>
     </row>
     <row r="10">
@@ -762,13 +760,13 @@
         <v>-12.96488107088343</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-2.962960127187352</v>
+        <v>-2.962960127187353</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>8.156550778728793</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-3.782574820574847</v>
+        <v>-3.782574820574848</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>-5.676131305771564</v>
@@ -785,22 +783,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-40.30360840753023</v>
+        <v>-38.06176001105578</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-28.69027193465302</v>
+        <v>-28.60618539073726</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-17.24971204447533</v>
+        <v>-16.84092430993665</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-27.29627791683318</v>
+        <v>-27.09632864114932</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-20.06468219943915</v>
+        <v>-19.76833529688803</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-19.86646797988805</v>
+        <v>-19.43813836437327</v>
       </c>
     </row>
     <row r="12">
@@ -814,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.06447890459987</v>
+        <v>10.90960934252796</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>59.73865995921941</v>
+        <v>60.47656984911517</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.784752654185873</v>
+        <v>7.388445219077905</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>13.45912588032118</v>
+        <v>13.32405913266213</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.2058443900055</v>
+        <v>6.728383158438726</v>
       </c>
     </row>
     <row r="13">
@@ -840,13 +838,13 @@
         <v>-1</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.2285373935162103</v>
+        <v>-0.2285373935162104</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.7346133729202369</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>-0.3406746457721086</v>
+        <v>-0.3406746457721087</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.4686604504701514</v>
@@ -864,13 +862,13 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>-0.9091383683687075</v>
+        <v>-1</v>
       </c>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>-0.7797553146862859</v>
+        <v>-0.796731722813863</v>
       </c>
     </row>
     <row r="15">
@@ -886,7 +884,7 @@
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>1.493881797495618</v>
+        <v>2.228467315981582</v>
       </c>
     </row>
     <row r="16">
@@ -910,7 +908,7 @@
         <v>7.235573397374161</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9.552696499408448</v>
+        <v>9.552696499408444</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>6.278917675134362</v>
@@ -927,22 +925,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-27.36349295881217</v>
+        <v>-29.20239301440335</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-46.72204919169808</v>
+        <v>-45.77981468052464</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.356305752137546</v>
+        <v>4.282384947358913</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-7.857976480004636</v>
+        <v>-7.717681569929356</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-16.78487321204195</v>
+        <v>-13.4729732964593</v>
       </c>
     </row>
     <row r="18">
@@ -953,22 +951,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>24.47550186533399</v>
+        <v>25.18372410982466</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.575991777473948</v>
+        <v>8.570347388427054</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>32.51374868159701</v>
+        <v>39.90239794583461</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17.2981171306873</v>
+        <v>16.85874137360745</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>19.97978076977193</v>
+        <v>21.12577535007796</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>9.291064414752807</v>
+        <v>9.353562499551943</v>
       </c>
     </row>
     <row r="19">
@@ -1067,22 +1065,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-59.680251082007</v>
+        <v>-55.76686551908075</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-66.05217799012668</v>
+        <v>-65.12255997847753</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-12.03214360280757</v>
+        <v>-12.30641553403461</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-16.99118149399782</v>
+        <v>-15.33660225039025</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-26.72964389137621</v>
+        <v>-24.73823664438349</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-37.02749424513854</v>
+        <v>-34.12472464177579</v>
       </c>
     </row>
     <row r="24">
@@ -1093,22 +1091,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>18.88407747141944</v>
+        <v>18.77327795821055</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.460351962226889</v>
+        <v>5.792175609059545</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>36.10360512031959</v>
+        <v>32.77767275907252</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15.16134124036631</v>
+        <v>14.94342656139932</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>19.3444189873114</v>
+        <v>19.13934806880378</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.786238209920572</v>
+        <v>8.108566873506183</v>
       </c>
     </row>
     <row r="25">
@@ -1144,19 +1142,17 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C26" s="6" t="n">
-        <v>-0.9343323228678287</v>
-      </c>
+      <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
-        <v>-0.9528943585017304</v>
+        <v>-0.9652557628324488</v>
       </c>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="n">
-        <v>-0.846336401031209</v>
+        <v>-0.7912732619045596</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.82308418695413</v>
+        <v>-0.8272842551390445</v>
       </c>
     </row>
     <row r="27">
@@ -1171,10 +1167,10 @@
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="n">
-        <v>4.236896691678345</v>
+        <v>4.005373412551213</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.830060163860557</v>
+        <v>1.888339927231499</v>
       </c>
     </row>
     <row r="28">
@@ -1198,13 +1194,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2.84003460374227</v>
+        <v>2.840034603742271</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>12.39443147070753</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-2.592454182458966</v>
+        <v>-2.592454182458968</v>
       </c>
     </row>
     <row r="29">
@@ -1215,20 +1211,20 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-32.02722588603771</v>
+        <v>-32.04616282674376</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-57.19046169071706</v>
+        <v>-57.47525547697424</v>
       </c>
       <c r="E29" s="5" t="inlineStr"/>
       <c r="F29" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-15.50416393983539</v>
+        <v>-15.47147346989129</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-25.9337393886717</v>
+        <v>-29.11786491007903</v>
       </c>
     </row>
     <row r="30">
@@ -1239,20 +1235,20 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>85.0553588624459</v>
+        <v>84.79329982766299</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>11.50577407596131</v>
+        <v>11.47528886918128</v>
       </c>
       <c r="E30" s="5" t="inlineStr"/>
       <c r="F30" s="5" t="n">
-        <v>15.76633587156638</v>
+        <v>14.23520962714264</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>62.64045918204464</v>
+        <v>60.09686942188676</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>7.212812964659708</v>
+        <v>8.147879020779056</v>
       </c>
     </row>
     <row r="31">
@@ -1278,7 +1274,7 @@
         <v>1.619581599117358</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.3387562471411767</v>
+        <v>-0.3387562471411769</v>
       </c>
     </row>
     <row r="32">
@@ -1324,19 +1320,19 @@
         <v>-0.602990306798154</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>-6.044022323974247</v>
+        <v>-6.044022323974246</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>2.395454848552305</v>
+        <v>2.395454848552306</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>-1.081314309239506</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-2.967130922435513</v>
+        <v>-2.967130922435512</v>
       </c>
     </row>
     <row r="35">
@@ -1347,20 +1343,20 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-31.13118324925422</v>
+        <v>-31.51579887467516</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-39.11425175545624</v>
+        <v>-40.41781287791486</v>
       </c>
       <c r="E35" s="5" t="inlineStr"/>
       <c r="F35" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-20.01515659689072</v>
+        <v>-19.30220398558104</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-24.14381138485193</v>
+        <v>-25.0577868056595</v>
       </c>
     </row>
     <row r="36">
@@ -1371,20 +1367,20 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>20.86948028316533</v>
+        <v>20.53721326763198</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>5.804885660728805</v>
+        <v>6.650481987462788</v>
       </c>
       <c r="E36" s="5" t="inlineStr"/>
       <c r="F36" s="5" t="n">
-        <v>7.389839794410931</v>
+        <v>7.381901721011898</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>10.81523765632341</v>
+        <v>10.9791820767283</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>4.447851596936522</v>
+        <v>4.260367984683619</v>
       </c>
     </row>
     <row r="37">
@@ -1398,7 +1394,7 @@
         <v>-0.05874030660583884</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>-0.5887784935183451</v>
+        <v>-0.588778493518345</v>
       </c>
       <c r="E37" s="6" t="inlineStr"/>
       <c r="F37" s="6" t="inlineStr">
@@ -1410,7 +1406,7 @@
         <v>-0.1698637061788847</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.466106710043762</v>
+        <v>-0.4661067100437618</v>
       </c>
     </row>
     <row r="38">
@@ -1456,7 +1452,7 @@
         <v>-6.446783637540903</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>1.346390987269128</v>
+        <v>1.346390987269125</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>-36.96178888925903</v>
@@ -1479,22 +1475,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-38.83787754102758</v>
+        <v>-41.35457965322936</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-32.47321006191991</v>
+        <v>-29.29803610987586</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-61.00813024409618</v>
+        <v>-61.91490670818669</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-58.74765743321451</v>
+        <v>-60.38292352560879</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-41.87471138272343</v>
+        <v>-44.4301416152202</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-38.26281924645379</v>
+        <v>-37.90129270291961</v>
       </c>
     </row>
     <row r="42">
@@ -1505,22 +1501,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>10.62999674310453</v>
+        <v>12.54881982418059</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>17.65207041756153</v>
+        <v>18.21588629209116</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-10.59027658166393</v>
+        <v>-10.40457261481577</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>-13.31060476093449</v>
+        <v>-11.88334407509106</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-5.310546746516573</v>
+        <v>-6.076559038360852</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-3.136648022140477</v>
+        <v>-3.420955506005568</v>
       </c>
     </row>
     <row r="43">
@@ -1534,7 +1530,7 @@
         <v>-0.3763101989395667</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>0.07859123072151815</v>
+        <v>0.07859123072151798</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>-0.8304160552201967</v>
@@ -1558,19 +1554,19 @@
       </c>
       <c r="C44" s="6" t="inlineStr"/>
       <c r="D44" s="6" t="n">
-        <v>-0.7402835020282977</v>
+        <v>-0.7233588043687266</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.9134579614599069</v>
+        <v>-0.9194210847001786</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.8953983451499253</v>
+        <v>-0.9129352621540473</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.7792280440071554</v>
+        <v>-0.7739933221023989</v>
       </c>
     </row>
     <row r="45">
@@ -1583,16 +1579,16 @@
       <c r="C45" s="6" t="inlineStr"/>
       <c r="D45" s="6" t="inlineStr"/>
       <c r="E45" s="6" t="n">
-        <v>-0.2606909176436342</v>
+        <v>-0.1683160756312664</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>-0.574117040040067</v>
+        <v>-0.5709510832840136</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.1381354554413705</v>
+        <v>-0.2426906704123294</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.1469924086270219</v>
+        <v>-0.1646845458458392</v>
       </c>
     </row>
     <row r="46">
@@ -1610,7 +1606,7 @@
         <v>16.47020477351738</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>7.323913421429043</v>
+        <v>7.323913421429047</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>24.09822185448807</v>
@@ -1633,22 +1629,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>4.179519333608043</v>
+        <v>4.239760886847992</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>4.173406910150645</v>
+        <v>4.209550346174081</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-8.855680349855662</v>
+        <v>-11.81800079096285</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-36.43156791941266</v>
+        <v>-33.4209459000268</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>3.739026809385821</v>
+        <v>3.565165350539317</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-10.38658272495701</v>
+        <v>-10.74985926834469</v>
       </c>
     </row>
     <row r="48">
@@ -1659,22 +1655,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>34.63168528203994</v>
+        <v>35.29742586600357</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>12.08929135358049</v>
+        <v>12.58794206135414</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>59.6572686216243</v>
+        <v>61.50708950291325</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>5.590961364748244</v>
+        <v>5.008091615773806</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>36.69152918856117</v>
+        <v>36.09999897750717</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>6.550981287628216</v>
+        <v>6.242412763557743</v>
       </c>
     </row>
     <row r="49">
@@ -1718,13 +1714,13 @@
       <c r="D50" s="6" t="inlineStr"/>
       <c r="E50" s="6" t="inlineStr"/>
       <c r="F50" s="6" t="n">
-        <v>-0.9062511476254848</v>
+        <v>-0.9253503557033025</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.09658295457269193</v>
+        <v>-0.2295783759470008</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.6708574141230598</v>
+        <v>-0.6985504800193852</v>
       </c>
     </row>
     <row r="51">
@@ -1768,7 +1764,7 @@
         <v>-2.159404726491745</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>-6.823981400748896</v>
+        <v>-6.823981400748895</v>
       </c>
     </row>
     <row r="53">
@@ -1779,22 +1775,22 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-9.480834524053082</v>
+        <v>-8.846999868800124</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-12.29205110028207</v>
+        <v>-13.24311782944857</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-17.79021914491445</v>
+        <v>-16.74956350151189</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-20.41360677606666</v>
+        <v>-20.47793695795713</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-9.604614280655229</v>
+        <v>-9.32406122045888</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-13.24510641577991</v>
+        <v>-13.7421387300118</v>
       </c>
     </row>
     <row r="54">
@@ -1805,22 +1801,22 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>10.28604832828523</v>
+        <v>9.817275721945924</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>3.735549416413264</v>
+        <v>3.082637403767858</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>3.220124803587739</v>
+        <v>3.156113725437569</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>-3.324565773338196</v>
+        <v>-3.229331056639187</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>4.89882512131462</v>
+        <v>4.599804971033657</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>-1.492348861002048</v>
+        <v>-1.798819634398768</v>
       </c>
     </row>
     <row r="55">
@@ -1840,13 +1836,13 @@
         <v>-0.3637755278122322</v>
       </c>
       <c r="F55" s="6" t="n">
-        <v>-0.5945467613466694</v>
+        <v>-0.5945467613466693</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>-0.1400565293744927</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>-0.4425956560064206</v>
+        <v>-0.4425956560064205</v>
       </c>
     </row>
     <row r="56">
@@ -1857,22 +1853,22 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.4724853253957583</v>
+        <v>-0.4643835200195147</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.5903904019328359</v>
+        <v>-0.5892053048687362</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.7036024268353063</v>
+        <v>-0.7270327371793792</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.7465042516607762</v>
+        <v>-0.7524556347340176</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.4785733356606742</v>
+        <v>-0.4726815920272101</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.6174524870523128</v>
+        <v>-0.6374018174784667</v>
       </c>
     </row>
     <row r="57">
@@ -1883,22 +1879,22 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>1.455205101312373</v>
+        <v>1.257726859324704</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.5485701240098372</v>
+        <v>0.4633709505555758</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.3828325249809503</v>
+        <v>0.3002744307822625</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>-0.2912126336966126</v>
+        <v>-0.2676697520097443</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.4454071892939171</v>
+        <v>0.4043727734073966</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>-0.1388249663792979</v>
+        <v>-0.1556817012410008</v>
       </c>
     </row>
     <row r="58">
